--- a/res/Levels/18/tree.xlsx
+++ b/res/Levels/18/tree.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\13753\Dropbox\Share\Levels\Level 15\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dallas\Documents\NetBeansProjects\DrTetris\res\Levels\18\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="2">
   <si>
     <t>root</t>
   </si>
@@ -1448,11 +1448,11 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>IF(Design!A7="dirt", 1, IF(Design!A7="sapphire", 2,  IF(Design!A7="ruby", 3,  IF(Design!A7="amethyst", 4,  IF(Design!A7="green garnet", 5,  IF(Design!A7="sand", 6,  IF(Design!A7="red tunnel", 7,  IF(Design!A7="blue tunnel", 8,  IF(Design!A7="green tunnel", 9,  IF(Design!A7="root", 10, IF(Design!A7=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <f>IF(Design!B7="dirt", 1, IF(Design!B7="sapphire", 2,  IF(Design!B7="ruby", 3,  IF(Design!B7="amethyst", 4,  IF(Design!B7="green garnet", 5,  IF(Design!B7="sand", 6,  IF(Design!B7="red tunnel", 7,  IF(Design!B7="blue tunnel", 8,  IF(Design!B7="green tunnel", 9,  IF(Design!B7="root", 10, IF(Design!B7=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <f>IF(Design!C7="dirt", 1, IF(Design!C7="sapphire", 2,  IF(Design!C7="ruby", 3,  IF(Design!C7="amethyst", 4,  IF(Design!C7="green garnet", 5,  IF(Design!C7="sand", 6,  IF(Design!C7="red tunnel", 7,  IF(Design!C7="blue tunnel", 8,  IF(Design!C7="green tunnel", 9,  IF(Design!C7="root", 10, IF(Design!C7=ISBLANK(0), 0, 0)))))))))))</f>
@@ -1492,7 +1492,7 @@
       </c>
       <c r="L7">
         <f>IF(Design!L7="dirt", 1, IF(Design!L7="sapphire", 2,  IF(Design!L7="ruby", 3,  IF(Design!L7="amethyst", 4,  IF(Design!L7="green garnet", 5,  IF(Design!L7="sand", 6,  IF(Design!L7="red tunnel", 7,  IF(Design!L7="blue tunnel", 8,  IF(Design!L7="green tunnel", 9,  IF(Design!L7="root", 10, IF(Design!L7=ISBLANK(0), 0, 0)))))))))))</f>
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1755,7 +1755,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1870,8 +1870,12 @@
       <c r="L6" s="6"/>
     </row>
     <row r="7" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C7" s="1" t="s">
         <v>1</v>
       </c>
@@ -1893,7 +1897,9 @@
       <c r="K7" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L7" s="6"/>
+      <c r="L7" s="6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5"/>
